--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\IdeaProjects\Reto-screeplay-falabella\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0CCEF2-DCC9-445E-B337-7EDCD8E3D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ADD390-0AA8-4A19-9028-9083AE5FFF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,8 +93,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\IdeaProjects\Reto-screeplay-falabella\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ADD390-0AA8-4A19-9028-9083AE5FFF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949DFAD-C0CC-4656-9096-10FBFC01E199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>computador</t>
+    <t>nevera</t>
   </si>
 </sst>
 </file>
